--- a/examples/palabra/lab3/lab3_result.xlsx
+++ b/examples/palabra/lab3/lab3_result.xlsx
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as1r1`.</t>
+          <t>No answer from `1.1.0.2` to `as1r1`.</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as1r1`.</t>
+          <t>No answer from `10.20.0.2` to `as1r1`.</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as2r2`.</t>
+          <t>No answer from `2.0.0.2` to `as2r2`.</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as2r2`.</t>
+          <t>No answer from `10.20.1.1` to `as2r2`.</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as3r1`.</t>
+          <t>No answer from `20.30.0.1` to `as3r1`.</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as1r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as1r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as2r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as2r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as3r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as3r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as1r1`.</t>
+          <t>No answer from `1.1.0.2` to `as1r1`.</t>
         </is>
       </c>
     </row>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7748,7 +7748,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7850,7 +7850,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as1r1`.</t>
+          <t>No answer from `10.20.0.2` to `as1r1`.</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `as1r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8224,7 +8224,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8258,7 +8258,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `as1r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8496,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8564,7 +8564,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `as2r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8768,7 +8768,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as2r2`.</t>
+          <t>No answer from `2.0.0.2` to `as2r2`.</t>
         </is>
       </c>
     </row>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -8972,7 +8972,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as2r2`.</t>
+          <t>No answer from `10.20.1.1` to `as2r2`.</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `as2r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9142,7 +9142,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9210,7 +9210,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9227,7 +9227,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9278,7 +9278,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as3r1`.</t>
+          <t>No answer from `20.30.0.1` to `as3r1`.</t>
         </is>
       </c>
     </row>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `as3r1`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9499,7 +9499,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9516,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9533,7 +9533,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9550,7 +9550,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9584,7 +9584,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `as3r2`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9703,7 +9703,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9754,7 +9754,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9856,7 +9856,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9907,7 +9907,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `local`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -9992,7 +9992,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10162,7 +10162,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10179,7 +10179,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10247,7 +10247,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10298,7 +10298,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10315,7 +10315,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `root`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10332,7 +10332,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>`1.0.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>`1.0.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10400,7 +10400,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10553,7 +10553,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `net`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10672,7 +10672,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>`1.1.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>`1.1.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>`2.0.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>`2.0.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>`2.1.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>`2.1.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>`3.0.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>`3.0.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>`3.1.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>`3.1.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>`3.2.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10859,7 +10859,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>`3.2.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>`10.20.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>`10.20.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10910,7 +10910,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>`10.20.1.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>`10.20.1.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10944,7 +10944,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>`20.30.0.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>`20.30.0.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>`20.30.1.1` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>`20.30.1.2` not reachable from device `pc`.</t>
+          <t>ping: connect: Network is unreachable</t>
         </is>
       </c>
     </row>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as1r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -12692,7 +12692,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as1r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as2r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12726,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as2r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as3r1`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>
@@ -12760,7 +12760,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>`pc.net` not reachable from device `as3r2`.</t>
+          <t>ping: pc.net: Temporary failure in name resolution</t>
         </is>
       </c>
     </row>

--- a/examples/palabra/lab3/lab3_result.xlsx
+++ b/examples/palabra/lab3/lab3_result.xlsx
@@ -5713,7 +5713,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Check bgp network (1.0.0.0/8) for as1r1</t>
+          <t>Check bgpd network (1.0.0.0/8) for as1r1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5723,14 +5723,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Network 1.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 1.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Check bgp network (1.0.0.0/8) for as1r2</t>
+          <t>Check bgpd network (1.0.0.0/8) for as1r2</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5740,14 +5740,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Network 1.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 1.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Check bgp network (2.0.0.0/8) for as2r1</t>
+          <t>Check bgpd network (2.0.0.0/8) for as2r1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5757,14 +5757,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Network 2.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 2.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Check bgp network (2.0.0.0/8) for as2r2</t>
+          <t>Check bgpd network (2.0.0.0/8) for as2r2</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5774,14 +5774,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Network 2.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 2.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Check bgp network (3.0.0.0/8) for as3r1</t>
+          <t>Check bgpd network (3.0.0.0/8) for as3r1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5791,14 +5791,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Network 3.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 3.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Check bgp network (3.0.0.0/8) for as3r2</t>
+          <t>Check bgpd network (3.0.0.0/8) for as3r2</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Network 3.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 3.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
@@ -11509,7 +11509,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Check bgp network (1.0.0.0/8) for as1r1</t>
+          <t>Check bgpd network (1.0.0.0/8) for as1r1</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -11519,14 +11519,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Network 1.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 1.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Check bgp network (1.0.0.0/8) for as1r2</t>
+          <t>Check bgpd network (1.0.0.0/8) for as1r2</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -11536,14 +11536,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Network 1.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 1.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Check bgp network (2.0.0.0/8) for as2r1</t>
+          <t>Check bgpd network (2.0.0.0/8) for as2r1</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -11553,14 +11553,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Network 2.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 2.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Check bgp network (2.0.0.0/8) for as2r2</t>
+          <t>Check bgpd network (2.0.0.0/8) for as2r2</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -11570,14 +11570,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Network 2.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 2.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Check bgp network (3.0.0.0/8) for as3r1</t>
+          <t>Check bgpd network (3.0.0.0/8) for as3r1</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -11587,14 +11587,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Network 3.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 3.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Check bgp network (3.0.0.0/8) for as3r2</t>
+          <t>Check bgpd network (3.0.0.0/8) for as3r2</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Network 3.0.0.0/8 is not announced in BGP.</t>
+          <t>Network 3.0.0.0/8 is not announced in bgpd.</t>
         </is>
       </c>
     </row>
